--- a/practice/Lev/falling_ball.xlsx
+++ b/practice/Lev/falling_ball.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\mai-university7\practice\Lev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232E289-1B0F-49F3-8660-7B434E442F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906F623-7AB5-4584-81A6-EDAD32AE523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="5385" yWindow="2355" windowWidth="28800" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,99 +365,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
-    <col min="3" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="18" width="5.7109375" customWidth="true"/>
+    <col min="1" max="1" width="4.140625" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" customWidth="true"/>
+    <col min="3" max="3" width="5.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="19" max="20" width="6.7109375" customWidth="true"/>
+    <col min="4" max="4" width="5.7109375" customWidth="true"/>
+    <col min="5" max="5" width="5.7109375" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" customWidth="true"/>
+    <col min="7" max="7" width="5.7109375" customWidth="true"/>
+    <col min="8" max="8" width="5.7109375" customWidth="true"/>
+    <col min="9" max="9" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="5.7109375" customWidth="true"/>
+    <col min="12" max="18" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="B1" s="0">
-        <v>0.435</v>
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="C1" s="0">
+        <v>5.5499999999999998</v>
+      </c>
+      <c r="D1" s="0">
+        <v>6.726</v>
+      </c>
+      <c r="E1" s="0">
+        <v>5.4820000000000002</v>
+      </c>
+      <c r="F1" s="0">
+        <v>5.5410000000000004</v>
+      </c>
+      <c r="G1" s="0">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="H1" s="0">
+        <v>5.5449999999999999</v>
+      </c>
+      <c r="I1" s="0">
+        <v>5.9429999999999996</v>
+      </c>
+      <c r="J1" s="0">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="K1" s="0">
+        <v>6.8769999999999998</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="B2" s="0">
-        <v>1.135</v>
+        <v>7.3609999999999998</v>
+      </c>
+      <c r="C2" s="0">
+        <v>6.7969999999999997</v>
+      </c>
+      <c r="D2" s="0">
+        <v>8.2370000000000001</v>
+      </c>
+      <c r="E2" s="0">
+        <v>6.7130000000000001</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6.7869999999999999</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6.657</v>
+      </c>
+      <c r="H2" s="0">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="I2" s="0">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="J2" s="0">
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="K2" s="0">
+        <v>8.423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="B3" s="0">
-        <v>2.4009999999999998</v>
+        <v>8.5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>9.5120000000000005</v>
+      </c>
+      <c r="E3" s="0">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="F3" s="0">
+        <v>7.8360000000000003</v>
+      </c>
+      <c r="G3" s="0">
+        <v>7.6870000000000003</v>
+      </c>
+      <c r="H3" s="0">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="I3" s="0">
+        <v>8.4049999999999994</v>
+      </c>
+      <c r="J3" s="0">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="K3" s="0">
+        <v>9.7260000000000009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="B4" s="0">
-        <v>3.0950000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>5.0789999999999997</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0">
-        <v>5.6740000000000004</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0">
-        <v>7.6139999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0">
-        <v>10.090999999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0">
-        <v>12.606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0">
-        <v>11.77</v>
+        <v>9.5030000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10.634</v>
+      </c>
+      <c r="E4" s="0">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="F4" s="0">
+        <v>8.7609999999999992</v>
+      </c>
+      <c r="G4" s="0">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="H4" s="0">
+        <v>8.7669999999999995</v>
+      </c>
+      <c r="I4" s="0">
+        <v>9.3970000000000002</v>
+      </c>
+      <c r="J4" s="0">
+        <v>9.0190000000000001</v>
+      </c>
+      <c r="K4" s="0">
+        <v>10.874000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/practice/Lev/falling_ball.xlsx
+++ b/practice/Lev/falling_ball.xlsx
@@ -393,34 +393,34 @@
         <v>200</v>
       </c>
       <c r="B1" s="0">
-        <v>6.0110000000000001</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="C1" s="0">
-        <v>5.5499999999999998</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="D1" s="0">
-        <v>6.726</v>
+        <v>6.6509999999999998</v>
       </c>
       <c r="E1" s="0">
-        <v>5.4820000000000002</v>
+        <v>6.8070000000000004</v>
       </c>
       <c r="F1" s="0">
-        <v>5.5410000000000004</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="G1" s="0">
-        <v>5.4349999999999996</v>
+        <v>5.2229999999999999</v>
       </c>
       <c r="H1" s="0">
-        <v>5.5449999999999999</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="I1" s="0">
-        <v>5.9429999999999996</v>
+        <v>6.492</v>
       </c>
       <c r="J1" s="0">
-        <v>5.7039999999999997</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="K1" s="0">
-        <v>6.8769999999999998</v>
+        <v>5.9370000000000003</v>
       </c>
     </row>
     <row r="2">
@@ -428,34 +428,34 @@
         <v>300</v>
       </c>
       <c r="B2" s="0">
-        <v>7.3609999999999998</v>
+        <v>8.0020000000000007</v>
       </c>
       <c r="C2" s="0">
-        <v>6.7969999999999997</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="D2" s="0">
-        <v>8.2370000000000001</v>
+        <v>7.6100000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>6.7130000000000001</v>
+        <v>6.3239999999999999</v>
       </c>
       <c r="F2" s="0">
-        <v>6.7869999999999999</v>
+        <v>7.9290000000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>6.657</v>
+        <v>7.8570000000000002</v>
       </c>
       <c r="H2" s="0">
-        <v>6.7910000000000004</v>
+        <v>6.4829999999999997</v>
       </c>
       <c r="I2" s="0">
-        <v>7.2789999999999999</v>
+        <v>6.6079999999999997</v>
       </c>
       <c r="J2" s="0">
-        <v>6.9859999999999998</v>
+        <v>7.7789999999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>8.423</v>
+        <v>8.1929999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -463,34 +463,34 @@
         <v>400</v>
       </c>
       <c r="B3" s="0">
-        <v>8.5</v>
+        <v>8.5790000000000006</v>
       </c>
       <c r="C3" s="0">
-        <v>7.8490000000000002</v>
+        <v>8.8979999999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>9.5120000000000005</v>
+        <v>7.7199999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>7.7519999999999998</v>
+        <v>8.5519999999999996</v>
       </c>
       <c r="F3" s="0">
-        <v>7.8360000000000003</v>
+        <v>8.5800000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>7.6870000000000003</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="H3" s="0">
-        <v>7.8410000000000002</v>
+        <v>9.4410000000000007</v>
       </c>
       <c r="I3" s="0">
-        <v>8.4049999999999994</v>
+        <v>9.0109999999999992</v>
       </c>
       <c r="J3" s="0">
-        <v>8.0670000000000002</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="K3" s="0">
-        <v>9.7260000000000009</v>
+        <v>7.4509999999999996</v>
       </c>
     </row>
     <row r="4">
@@ -498,34 +498,34 @@
         <v>500</v>
       </c>
       <c r="B4" s="0">
-        <v>9.5030000000000001</v>
+        <v>9.5310000000000006</v>
       </c>
       <c r="C4" s="0">
-        <v>8.7750000000000004</v>
+        <v>10.68</v>
       </c>
       <c r="D4" s="0">
-        <v>10.634</v>
+        <v>8.8040000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>8.6669999999999998</v>
+        <v>8.5860000000000003</v>
       </c>
       <c r="F4" s="0">
-        <v>8.7609999999999992</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="G4" s="0">
-        <v>8.5939999999999994</v>
+        <v>8.2940000000000005</v>
       </c>
       <c r="H4" s="0">
-        <v>8.7669999999999995</v>
+        <v>10.553000000000001</v>
       </c>
       <c r="I4" s="0">
-        <v>9.3970000000000002</v>
+        <v>9.6479999999999997</v>
       </c>
       <c r="J4" s="0">
-        <v>9.0190000000000001</v>
+        <v>9.452</v>
       </c>
       <c r="K4" s="0">
-        <v>10.874000000000001</v>
+        <v>8.4800000000000004</v>
       </c>
     </row>
   </sheetData>
